--- a/test1.xlsx
+++ b/test1.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:EQ1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="ED1" workbookViewId="0">
-      <selection activeCell="EP23" sqref="EP23"/>
+      <selection activeCell="EK17" sqref="EK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,7 +827,7 @@
         <v>16</v>
       </c>
       <c r="EP1" s="4">
-        <v>45892.625011574077</v>
+        <v>45892.635428240741</v>
       </c>
       <c r="EQ1" s="5" t="s">
         <v>17</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +95,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,10 +149,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -159,8 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EQ1"/>
+  <dimension ref="A1:EQ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ED1" workbookViewId="0">
-      <selection activeCell="EK17" sqref="EK17"/>
+    <sheetView tabSelected="1" topLeftCell="EK1" workbookViewId="0">
+      <selection activeCell="EP6" sqref="EP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,13 +838,17 @@
         <v>16</v>
       </c>
       <c r="EP1" s="4">
-        <v>45892.635428240741</v>
+        <v>45892.736111111109</v>
       </c>
       <c r="EQ1" s="5" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="6" spans="1:147" x14ac:dyDescent="0.3">
+      <c r="DV6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EO9" sqref="EO9"/>
+      <selection activeCell="ET9" sqref="ET9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.543055555558</v>
+        <v>45894.545138888891</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="ET9" sqref="ET9"/>
+      <selection activeCell="EJ4" sqref="EJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.545138888891</v>
+        <v>45894.549305555556</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EJ4" sqref="EJ4"/>
+      <selection activeCell="ET7" sqref="ET7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.549305555556</v>
+        <v>45894.556944444441</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="ET7" sqref="ET7"/>
+      <selection activeCell="EK6" sqref="EK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.556944444441</v>
+        <v>45894.560416666667</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EK6" sqref="EK6"/>
+      <selection activeCell="EI3" sqref="EI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.560416666667</v>
+        <v>45894.56527777778</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>
@@ -1530,7 +1530,7 @@
         <v>38</v>
       </c>
       <c r="EP2" s="2">
-        <v>45894.56527777778</v>
+        <v>45894.578472222223</v>
       </c>
       <c r="EQ2" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EI3" sqref="EI3"/>
+      <selection activeCell="EI2" sqref="EI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.56527777778</v>
+        <v>45894.571527777778</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EI2" sqref="EI2"/>
+      <selection activeCell="EK3" sqref="EK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.571527777778</v>
+        <v>45894.599305555559</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>
@@ -1530,7 +1530,7 @@
         <v>38</v>
       </c>
       <c r="EP2" s="2">
-        <v>45894.578472222223</v>
+        <v>45894.999305555553</v>
       </c>
       <c r="EQ2" s="1" t="s">
         <v>7</v>
@@ -1913,7 +1913,7 @@
         <v>47</v>
       </c>
       <c r="EP3" s="2">
-        <v>45894.593055555553</v>
+        <v>45894.884722222225</v>
       </c>
       <c r="EQ3" s="1" t="s">
         <v>7</v>
@@ -2296,7 +2296,7 @@
         <v>57</v>
       </c>
       <c r="EP4" s="2">
-        <v>45894.60833333333</v>
+        <v>45894.691666666666</v>
       </c>
       <c r="EQ4" s="1" t="s">
         <v>7</v>
@@ -2679,7 +2679,7 @@
         <v>66</v>
       </c>
       <c r="EP5" s="2">
-        <v>45894.704861111109</v>
+        <v>45894.829861111109</v>
       </c>
       <c r="EQ5" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EK3" sqref="EK3"/>
+      <selection activeCell="EH2" sqref="EH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.599305555559</v>
+        <v>45894.604861111111</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EH2" sqref="EH2"/>
+      <selection activeCell="EI4" sqref="EI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.604861111111</v>
+        <v>45894.607638888891</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EI4" sqref="EI4"/>
+      <selection activeCell="EP10" sqref="EP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.607638888891</v>
+        <v>45894.616666666669</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EP10" sqref="EP10"/>
+      <selection activeCell="EK2" sqref="EK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.616666666669</v>
+        <v>45894.630555555559</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EK2" sqref="EK2"/>
+      <selection activeCell="EH5" sqref="EH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.630555555559</v>
+        <v>45894.633333333331</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EH5" sqref="EH5"/>
+      <selection activeCell="EL7" sqref="EL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.633333333331</v>
+        <v>45894.644444444442</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
-      <selection activeCell="EL7" sqref="EL7"/>
+      <selection activeCell="EH3" sqref="EH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="EP1" s="2">
-        <v>45894.644444444442</v>
+        <v>45894.65</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>7</v>
